--- a/results/results-summary.xlsx
+++ b/results/results-summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eclow\Documents\GitHub\cab-persistency\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDA5289-B2B0-409F-B6B2-2D756B2B9BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6BF2FD-7FD3-4646-88FC-F62D29575E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E3C28A38-F81D-4012-A858-487C79F437B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="2" activeTab="6" xr2:uid="{E3C28A38-F81D-4012-A858-487C79F437B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="827">
   <si>
     <t>country</t>
   </si>
@@ -2065,6 +2065,468 @@
   </si>
   <si>
     <t>Note different format than paper, uses full dataset</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Za</t>
+  </si>
+  <si>
+    <t>MZa</t>
+  </si>
+  <si>
+    <t>MZt</t>
+  </si>
+  <si>
+    <t>MSB</t>
+  </si>
+  <si>
+    <t>MPT</t>
+  </si>
+  <si>
+    <t>Num. Breaks</t>
+  </si>
+  <si>
+    <t>-26.91**</t>
+  </si>
+  <si>
+    <t>-5.238***</t>
+  </si>
+  <si>
+    <t>4.877***</t>
+  </si>
+  <si>
+    <t>-49.56***</t>
+  </si>
+  <si>
+    <t>-44.49***</t>
+  </si>
+  <si>
+    <t>-4.702***</t>
+  </si>
+  <si>
+    <t>0.1057***</t>
+  </si>
+  <si>
+    <t>4.497***</t>
+  </si>
+  <si>
+    <t>-4.261**</t>
+  </si>
+  <si>
+    <t>-41.13**</t>
+  </si>
+  <si>
+    <t>7.973*</t>
+  </si>
+  <si>
+    <t>-3.865**</t>
+  </si>
+  <si>
+    <t>-3.823**</t>
+  </si>
+  <si>
+    <t>-34.72**</t>
+  </si>
+  <si>
+    <t>-5.082**</t>
+  </si>
+  <si>
+    <t>-46.59*</t>
+  </si>
+  <si>
+    <t>-3.81**</t>
+  </si>
+  <si>
+    <t>-25.85*</t>
+  </si>
+  <si>
+    <t>-3.276**</t>
+  </si>
+  <si>
+    <t>6.946*</t>
+  </si>
+  <si>
+    <t>-26.65**</t>
+  </si>
+  <si>
+    <t>-21.33*</t>
+  </si>
+  <si>
+    <t>-3.184*</t>
+  </si>
+  <si>
+    <t>0.1493**</t>
+  </si>
+  <si>
+    <t>6.745*</t>
+  </si>
+  <si>
+    <t>-27.86**</t>
+  </si>
+  <si>
+    <t>-4.698***</t>
+  </si>
+  <si>
+    <t>6.882**</t>
+  </si>
+  <si>
+    <t>-63.99***</t>
+  </si>
+  <si>
+    <t>-33.94**</t>
+  </si>
+  <si>
+    <t>-4.112**</t>
+  </si>
+  <si>
+    <t>0.1212**</t>
+  </si>
+  <si>
+    <t>6.704**</t>
+  </si>
+  <si>
+    <t>-5.47***</t>
+  </si>
+  <si>
+    <t>8.665**</t>
+  </si>
+  <si>
+    <t>-65.05***</t>
+  </si>
+  <si>
+    <t>-45.72**</t>
+  </si>
+  <si>
+    <t>-4.765**</t>
+  </si>
+  <si>
+    <t>0.1042**</t>
+  </si>
+  <si>
+    <t>8.516**</t>
+  </si>
+  <si>
+    <t>-27.89*</t>
+  </si>
+  <si>
+    <t>-4.621**</t>
+  </si>
+  <si>
+    <t>8.133**</t>
+  </si>
+  <si>
+    <t>-50.68***</t>
+  </si>
+  <si>
+    <t>-41.08**</t>
+  </si>
+  <si>
+    <t>-4.524**</t>
+  </si>
+  <si>
+    <t>0.1101**</t>
+  </si>
+  <si>
+    <t>7.131**</t>
+  </si>
+  <si>
+    <t>-3.86**</t>
+  </si>
+  <si>
+    <t>-32.47**</t>
+  </si>
+  <si>
+    <t>-26.55*</t>
+  </si>
+  <si>
+    <t>-3.624*</t>
+  </si>
+  <si>
+    <t>0.1365*</t>
+  </si>
+  <si>
+    <t>8.447*</t>
+  </si>
+  <si>
+    <t>-3.873*</t>
+  </si>
+  <si>
+    <t>-31.97**</t>
+  </si>
+  <si>
+    <t>-3.512**</t>
+  </si>
+  <si>
+    <t>6.555*</t>
+  </si>
+  <si>
+    <t>-28.08**</t>
+  </si>
+  <si>
+    <t>-20.89*</t>
+  </si>
+  <si>
+    <t>-3.172*</t>
+  </si>
+  <si>
+    <t>0.1519*</t>
+  </si>
+  <si>
+    <t>6.583*</t>
+  </si>
+  <si>
+    <t>-5.221***</t>
+  </si>
+  <si>
+    <t>5.357**</t>
+  </si>
+  <si>
+    <t>-41.22***</t>
+  </si>
+  <si>
+    <t>-31.11**</t>
+  </si>
+  <si>
+    <t>-3.94**</t>
+  </si>
+  <si>
+    <t>0.1267**</t>
+  </si>
+  <si>
+    <t>5.124**</t>
+  </si>
+  <si>
+    <t>-22.74*</t>
+  </si>
+  <si>
+    <t>-4.175**</t>
+  </si>
+  <si>
+    <t>-48.45***</t>
+  </si>
+  <si>
+    <t>-3.996**</t>
+  </si>
+  <si>
+    <t>8.66*</t>
+  </si>
+  <si>
+    <t>-29.61**</t>
+  </si>
+  <si>
+    <t>-26.9*</t>
+  </si>
+  <si>
+    <t>-3.63*</t>
+  </si>
+  <si>
+    <t>0.1349*</t>
+  </si>
+  <si>
+    <t>8.31*</t>
+  </si>
+  <si>
+    <t>-4.509**</t>
+  </si>
+  <si>
+    <t>7.503**</t>
+  </si>
+  <si>
+    <t>-49.39***</t>
+  </si>
+  <si>
+    <t>-35.05**</t>
+  </si>
+  <si>
+    <t>-4.178**</t>
+  </si>
+  <si>
+    <t>0.1192**</t>
+  </si>
+  <si>
+    <t>7.391**</t>
+  </si>
+  <si>
+    <t>-4.498***</t>
+  </si>
+  <si>
+    <t>7.843*</t>
+  </si>
+  <si>
+    <t>-37.09**</t>
+  </si>
+  <si>
+    <t>-33.27**</t>
+  </si>
+  <si>
+    <t>-4.034**</t>
+  </si>
+  <si>
+    <t>0.1213**</t>
+  </si>
+  <si>
+    <t>7.024**</t>
+  </si>
+  <si>
+    <t>-25.68**</t>
+  </si>
+  <si>
+    <t>-3.587*</t>
+  </si>
+  <si>
+    <t>-23.93*</t>
+  </si>
+  <si>
+    <t>-3.195*</t>
+  </si>
+  <si>
+    <t>-30.51**</t>
+  </si>
+  <si>
+    <t>-29.07*</t>
+  </si>
+  <si>
+    <t>-4.027**</t>
+  </si>
+  <si>
+    <t>-28.13*</t>
+  </si>
+  <si>
+    <t>-3.578**</t>
+  </si>
+  <si>
+    <t>5.228**</t>
+  </si>
+  <si>
+    <t>-38.72***</t>
+  </si>
+  <si>
+    <t>-26.02**</t>
+  </si>
+  <si>
+    <t>-3.569**</t>
+  </si>
+  <si>
+    <t>0.1371**</t>
+  </si>
+  <si>
+    <t>5.301**</t>
+  </si>
+  <si>
+    <t>-4.935**</t>
+  </si>
+  <si>
+    <t>-42.72**</t>
+  </si>
+  <si>
+    <t>-37.45*</t>
+  </si>
+  <si>
+    <t>-4.327*</t>
+  </si>
+  <si>
+    <t>0.1155*</t>
+  </si>
+  <si>
+    <t>10.05*</t>
+  </si>
+  <si>
+    <t>-5.975***</t>
+  </si>
+  <si>
+    <t>3.165***</t>
+  </si>
+  <si>
+    <t>-75.57***</t>
+  </si>
+  <si>
+    <t>-53.29***</t>
+  </si>
+  <si>
+    <t>-5.162***</t>
+  </si>
+  <si>
+    <t>0.09686***</t>
+  </si>
+  <si>
+    <t>3.095***</t>
+  </si>
+  <si>
+    <t>-38.35**</t>
+  </si>
+  <si>
+    <t>-3.758**</t>
+  </si>
+  <si>
+    <t>7.761*</t>
+  </si>
+  <si>
+    <t>-32.13**</t>
+  </si>
+  <si>
+    <t>-27.39*</t>
+  </si>
+  <si>
+    <t>-3.667*</t>
+  </si>
+  <si>
+    <t>0.1339*</t>
+  </si>
+  <si>
+    <t>7.486*</t>
+  </si>
+  <si>
+    <t>-3.845**</t>
+  </si>
+  <si>
+    <t>-30.86**</t>
+  </si>
+  <si>
+    <t>-4.088**</t>
+  </si>
+  <si>
+    <t>6.892**</t>
+  </si>
+  <si>
+    <t>-38.93***</t>
+  </si>
+  <si>
+    <t>-32.15**</t>
+  </si>
+  <si>
+    <t>-4.001**</t>
+  </si>
+  <si>
+    <t>0.1244**</t>
+  </si>
+  <si>
+    <t>6.672**</t>
+  </si>
+  <si>
+    <t>-3.966**</t>
+  </si>
+  <si>
+    <t>5.832**</t>
+  </si>
+  <si>
+    <t>-37.95***</t>
+  </si>
+  <si>
+    <t>-30.34**</t>
+  </si>
+  <si>
+    <t>-3.882**</t>
+  </si>
+  <si>
+    <t>0.128**</t>
+  </si>
+  <si>
+    <t>5.622**</t>
+  </si>
+  <si>
+    <t>NUMBER OF BREAKS AND BREAK DATES DETERMINED USING BAI &amp; PERRON METHOD.</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2534,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2099,12 +2561,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2120,15 +2600,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2137,6 +2617,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2341,6 +2830,50 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10057143" cy="7771428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>244845</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>445486</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F42D65F1-CC00-B296-CFA8-E445E65349AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10608045" y="0"/>
+          <a:ext cx="17879041" cy="7515225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2651,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B619F5-E7B8-4269-BBD0-51C53A6C43CF}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2766,7 +3299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15195635-0777-4F5F-AB34-B2BFC2916DAF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -2780,7 +3313,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12122,18 +12655,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69ACB961-1D62-4FC2-AA19-01B4CE20C9A3}">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:W72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" style="9"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="21" max="21" width="9.5703125" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>131</v>
       </c>
@@ -12164,27 +12702,75 @@
       <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="M2" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="12" t="s">
         <v>467</v>
       </c>
       <c r="H3">
@@ -12196,27 +12782,60 @@
       <c r="J3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="12">
+        <v>-2.54</v>
+      </c>
+      <c r="O3" s="12">
+        <v>10.06</v>
+      </c>
+      <c r="P3" s="12">
+        <v>-15.83</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>-15.57</v>
+      </c>
+      <c r="R3" s="12">
+        <v>-2.77</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0.1779</v>
+      </c>
+      <c r="T3" s="12">
+        <v>9.1720000000000006</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2">
+        <v>31048</v>
+      </c>
+      <c r="W3" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="12">
         <v>-1.47</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>7.2959999999999997E-2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>-0.83479999999999999</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="12" t="s">
         <v>470</v>
       </c>
       <c r="H4">
@@ -12228,27 +12847,60 @@
       <c r="J4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="12">
+        <v>-2.6890000000000001</v>
+      </c>
+      <c r="O4" s="12">
+        <v>13.73</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>-9.6519999999999992</v>
+      </c>
+      <c r="R4" s="12">
+        <v>-2.1909999999999998</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="T4" s="12">
+        <v>13.76</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>34335</v>
+      </c>
+      <c r="W4" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="12">
         <v>-2.17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>-2.052</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="12" t="s">
         <v>474</v>
       </c>
       <c r="H5">
@@ -12260,27 +12912,60 @@
       <c r="J5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>681</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>21732</v>
+      </c>
+      <c r="W5" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="12">
         <v>-1.774</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="12" t="s">
         <v>479</v>
       </c>
       <c r="H6">
@@ -12292,27 +12977,60 @@
       <c r="J6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="O6" s="12">
+        <v>8.657</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>-30.3</v>
+      </c>
+      <c r="R6" s="12">
+        <v>-3.883</v>
+      </c>
+      <c r="S6" s="12">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>25569</v>
+      </c>
+      <c r="W6" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="12" t="s">
         <v>164</v>
       </c>
       <c r="H7">
@@ -12324,27 +13042,60 @@
       <c r="J7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" s="12">
+        <v>-2.7839999999999998</v>
+      </c>
+      <c r="O7" s="12">
+        <v>12.72</v>
+      </c>
+      <c r="P7" s="12">
+        <v>-23.57</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>-16.829999999999998</v>
+      </c>
+      <c r="R7" s="12">
+        <v>-2.89</v>
+      </c>
+      <c r="S7" s="12">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="T7" s="12">
+        <v>12.58</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7" s="2">
+        <v>35065</v>
+      </c>
+      <c r="W7" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="12">
         <v>-1.617</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>-0.49009999999999998</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="12" t="s">
         <v>483</v>
       </c>
       <c r="H8">
@@ -12356,27 +13107,60 @@
       <c r="J8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0</v>
+      </c>
+      <c r="U8" s="11">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>34700</v>
+      </c>
+      <c r="W8" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="12">
         <v>-2.2789999999999999</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="12">
         <v>-2.415</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>-2.2919999999999998</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="12" t="s">
         <v>173</v>
       </c>
       <c r="H9">
@@ -12388,27 +13172,60 @@
       <c r="J9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="12">
+        <v>-2.6970000000000001</v>
+      </c>
+      <c r="O9" s="12">
+        <v>13.47</v>
+      </c>
+      <c r="P9" s="12">
+        <v>-15.75</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>-13.74</v>
+      </c>
+      <c r="R9" s="12">
+        <v>-2.5950000000000002</v>
+      </c>
+      <c r="S9" s="12">
+        <v>0.1888</v>
+      </c>
+      <c r="T9" s="12">
+        <v>13.32</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9" s="2">
+        <v>31048</v>
+      </c>
+      <c r="W9" s="2">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>-2.1970000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>-9.6280000000000001</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="12" t="s">
         <v>487</v>
       </c>
       <c r="H10">
@@ -12420,27 +13237,60 @@
       <c r="J10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="12">
+        <v>-3.5169999999999999</v>
+      </c>
+      <c r="O10" s="12">
+        <v>19.14</v>
+      </c>
+      <c r="P10" s="12">
+        <v>-23.04</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>-21.46</v>
+      </c>
+      <c r="R10" s="12">
+        <v>-3.2749999999999999</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="T10" s="12">
+        <v>18.03</v>
+      </c>
+      <c r="U10">
+        <v>4</v>
+      </c>
+      <c r="V10" s="2">
+        <v>28491</v>
+      </c>
+      <c r="W10" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="12">
         <v>-1.617</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>-0.72360000000000002</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>-1.823</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="12" t="s">
         <v>184</v>
       </c>
       <c r="H11">
@@ -12452,27 +13302,60 @@
       <c r="J11" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="O11" s="12">
+        <v>14.66</v>
+      </c>
+      <c r="P11" s="12">
+        <v>-20.329999999999998</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>-15.86</v>
+      </c>
+      <c r="R11" s="12">
+        <v>-2.8109999999999999</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.1772</v>
+      </c>
+      <c r="T11" s="12">
+        <v>13.93</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>34335</v>
+      </c>
+      <c r="W11" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="12">
         <v>-0.63649999999999995</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="12">
         <v>0.65869999999999995</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="12" t="s">
         <v>491</v>
       </c>
       <c r="H12">
@@ -12484,27 +13367,60 @@
       <c r="J12" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="O12" s="12">
+        <v>7.492</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>-22.48</v>
+      </c>
+      <c r="R12" s="12">
+        <v>-3.3410000000000002</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="T12" s="12">
+        <v>7.0510000000000002</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12" s="2">
+        <v>34335</v>
+      </c>
+      <c r="W12" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="12">
         <v>-2.548</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>-2.5539999999999998</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="12" t="s">
         <v>494</v>
       </c>
       <c r="H13">
@@ -12516,27 +13432,60 @@
       <c r="J13" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="O13" s="12">
+        <v>12.01</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>-41.99</v>
+      </c>
+      <c r="R13" s="12">
+        <v>-4.58</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0.1091</v>
+      </c>
+      <c r="T13" s="12">
+        <v>10.94</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13" s="2">
+        <v>22282</v>
+      </c>
+      <c r="W13" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="12">
         <v>-1.583</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="12">
         <v>-1.5920000000000001</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <v>-1.855</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="12" t="s">
         <v>497</v>
       </c>
       <c r="H14">
@@ -12548,27 +13497,60 @@
       <c r="J14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="O14" s="12">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>-22.94</v>
+      </c>
+      <c r="R14" s="12">
+        <v>-3.3820000000000001</v>
+      </c>
+      <c r="S14" s="12">
+        <v>0.1474</v>
+      </c>
+      <c r="T14" s="12">
+        <v>8.6470000000000002</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>33239</v>
+      </c>
+      <c r="W14" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="12">
         <v>-2.524</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>-2.524</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <v>-2.3780000000000001</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="12" t="s">
         <v>500</v>
       </c>
       <c r="H15">
@@ -12580,27 +13562,60 @@
       <c r="J15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="12">
+        <v>-3.1850000000000001</v>
+      </c>
+      <c r="O15" s="12">
+        <v>11.85</v>
+      </c>
+      <c r="P15" s="12">
+        <v>-23.53</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>-19.13</v>
+      </c>
+      <c r="R15" s="12">
+        <v>-3.09</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0.1615</v>
+      </c>
+      <c r="T15" s="12">
+        <v>11.72</v>
+      </c>
+      <c r="U15">
+        <v>2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>33239</v>
+      </c>
+      <c r="W15" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>-2.2280000000000002</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="12" t="s">
         <v>504</v>
       </c>
       <c r="H16">
@@ -12612,27 +13627,60 @@
       <c r="J16" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>36</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16" s="2">
+        <v>35065</v>
+      </c>
+      <c r="W16" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="12" t="s">
         <v>509</v>
       </c>
       <c r="H17">
@@ -12644,27 +13692,60 @@
       <c r="J17" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>0</v>
+      </c>
+      <c r="U17" s="11">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>36161</v>
+      </c>
+      <c r="W17" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="12">
         <v>-0.62829999999999997</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="12">
         <v>-0.36509999999999998</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>-2.125</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>-10.29</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>-2.206</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="12" t="s">
         <v>214</v>
       </c>
       <c r="H18">
@@ -12676,27 +13757,60 @@
       <c r="J18" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="12">
+        <v>-2.9550000000000001</v>
+      </c>
+      <c r="O18" s="12">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>-19.14</v>
+      </c>
+      <c r="R18" s="12">
+        <v>-3.093</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0.1615</v>
+      </c>
+      <c r="T18" s="12">
+        <v>8.1639999999999997</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2">
+        <v>34608</v>
+      </c>
+      <c r="W18" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="12">
         <v>-1.258</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="12">
         <v>-0.89529999999999998</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>-1.101</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="12" t="s">
         <v>512</v>
       </c>
       <c r="H19">
@@ -12708,27 +13822,60 @@
       <c r="J19" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W19" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="12">
         <v>-0.79069999999999996</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="12">
         <v>0.26629999999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="12">
         <v>-1.778</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="12">
         <v>-6.7210000000000001</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="12" t="s">
         <v>514</v>
       </c>
       <c r="H20">
@@ -12740,27 +13887,60 @@
       <c r="J20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W20" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="12" t="s">
         <v>228</v>
       </c>
       <c r="H21">
@@ -12772,27 +13952,60 @@
       <c r="J21" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="12">
+        <v>-3.452</v>
+      </c>
+      <c r="O21" s="12">
+        <v>11.86</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>-18.940000000000001</v>
+      </c>
+      <c r="R21" s="12">
+        <v>-3.069</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="T21" s="12">
+        <v>11.2</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>36161</v>
+      </c>
+      <c r="W21" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="12">
         <v>-1.764</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="12">
         <v>-1.2909999999999999</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="12">
         <v>-1.5149999999999999</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="12" t="s">
         <v>517</v>
       </c>
       <c r="H22">
@@ -12804,27 +14017,60 @@
       <c r="J22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="12">
+        <v>-2.3679999999999999</v>
+      </c>
+      <c r="O22" s="12">
+        <v>23.24</v>
+      </c>
+      <c r="P22" s="12">
+        <v>-13.87</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>-10.91</v>
+      </c>
+      <c r="R22" s="12">
+        <v>-2.3340000000000001</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0.21390000000000001</v>
+      </c>
+      <c r="T22" s="12">
+        <v>20.34</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W22" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="12">
         <v>-2.1669999999999998</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="12">
         <v>-0.67349999999999999</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="12">
         <v>-1.4670000000000001</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="12" t="s">
         <v>520</v>
       </c>
       <c r="H23">
@@ -12836,27 +14082,60 @@
       <c r="J23" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="12">
+        <v>-3.6560000000000001</v>
+      </c>
+      <c r="O23" s="12">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="P23" s="12">
+        <v>-35.950000000000003</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>-24.17</v>
+      </c>
+      <c r="R23" s="12">
+        <v>-3.4660000000000002</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0.1434</v>
+      </c>
+      <c r="T23" s="12">
+        <v>15.22</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23" s="2">
+        <v>27395</v>
+      </c>
+      <c r="W23" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="12">
         <v>-2.177</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="12">
         <v>-2.2450000000000001</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="12" t="s">
         <v>524</v>
       </c>
       <c r="H24">
@@ -12868,27 +14147,60 @@
       <c r="J24" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24" s="2">
+        <v>27395</v>
+      </c>
+      <c r="W24" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="12">
         <v>-2.3130000000000002</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="12">
         <v>-2.222</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="12" t="s">
         <v>242</v>
       </c>
       <c r="H25">
@@ -12900,27 +14212,60 @@
       <c r="J25" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="O25" s="12">
+        <v>8.8279999999999994</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>35431</v>
+      </c>
+      <c r="W25" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>-1.5640000000000001</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="12">
         <v>-0.87849999999999995</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="12">
         <v>-1.5920000000000001</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>-5.2779999999999996</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="12">
         <v>-2.1629999999999998</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="12" t="s">
         <v>525</v>
       </c>
       <c r="H26">
@@ -12932,27 +14277,60 @@
       <c r="J26" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="12">
+        <v>-2.7149999999999999</v>
+      </c>
+      <c r="O26" s="12">
+        <v>23.37</v>
+      </c>
+      <c r="P26" s="12">
+        <v>-19.309999999999999</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>-17.82</v>
+      </c>
+      <c r="R26" s="12">
+        <v>-2.827</v>
+      </c>
+      <c r="S26" s="12">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="T26" s="12">
+        <v>20.86</v>
+      </c>
+      <c r="U26">
+        <v>4</v>
+      </c>
+      <c r="V26" s="2">
+        <v>25934</v>
+      </c>
+      <c r="W26" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>-1.9850000000000001</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="12">
         <v>-2.0019999999999998</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="12" t="s">
         <v>529</v>
       </c>
       <c r="H27">
@@ -12964,27 +14342,60 @@
       <c r="J27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>54</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="O27" s="12">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>-25.86</v>
+      </c>
+      <c r="R27" s="12">
+        <v>-3.59</v>
+      </c>
+      <c r="S27" s="12">
+        <v>0.13880000000000001</v>
+      </c>
+      <c r="T27" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="U27">
+        <v>3</v>
+      </c>
+      <c r="V27" s="2">
+        <v>27760</v>
+      </c>
+      <c r="W27" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="12">
         <v>-1.484</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="12">
         <v>-0.96299999999999997</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="12">
         <v>-0.82799999999999996</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="12" t="s">
         <v>253</v>
       </c>
       <c r="H28">
@@ -12996,27 +14407,60 @@
       <c r="J28" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>56</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W28" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>-0.89229999999999998</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="12">
         <v>-0.90329999999999999</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="12">
         <v>-1.502</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="12" t="s">
         <v>256</v>
       </c>
       <c r="H29">
@@ -13028,27 +14472,60 @@
       <c r="J29" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2">
+        <v>36161</v>
+      </c>
+      <c r="W29" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="12">
         <v>-2.097</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="12">
         <v>-1.494</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="12">
         <v>-1.6659999999999999</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="12" t="s">
         <v>532</v>
       </c>
       <c r="H30">
@@ -13060,27 +14537,60 @@
       <c r="J30" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" s="12">
+        <v>-3.4729999999999999</v>
+      </c>
+      <c r="O30" s="12">
+        <v>12.26</v>
+      </c>
+      <c r="P30" s="12">
+        <v>-25.29</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>-20.05</v>
+      </c>
+      <c r="R30" s="12">
+        <v>-3.1160000000000001</v>
+      </c>
+      <c r="S30" s="12">
+        <v>0.1555</v>
+      </c>
+      <c r="T30" s="12">
+        <v>11.5</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30" s="2">
+        <v>32782</v>
+      </c>
+      <c r="W30" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>-2.1749999999999998</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <v>-1.6870000000000001</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="12">
         <v>-1.98</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="12" t="s">
         <v>535</v>
       </c>
       <c r="H31">
@@ -13092,27 +14602,60 @@
       <c r="J31" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="12">
+        <v>-2.5219999999999998</v>
+      </c>
+      <c r="O31" s="12">
+        <v>14.27</v>
+      </c>
+      <c r="P31" s="12">
+        <v>-15.97</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>-12.75</v>
+      </c>
+      <c r="R31" s="12">
+        <v>-2.5219999999999998</v>
+      </c>
+      <c r="S31" s="12">
+        <v>0.1978</v>
+      </c>
+      <c r="T31" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>27760</v>
+      </c>
+      <c r="W31" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="12" t="s">
         <v>541</v>
       </c>
       <c r="H32">
@@ -13124,27 +14667,60 @@
       <c r="J32" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" s="12">
+        <v>-3.0680000000000001</v>
+      </c>
+      <c r="O32" s="12">
+        <v>12.33</v>
+      </c>
+      <c r="P32" s="12">
+        <v>-23.69</v>
+      </c>
+      <c r="Q32" s="12">
+        <v>-19.809999999999999</v>
+      </c>
+      <c r="R32" s="12">
+        <v>-3.1459999999999999</v>
+      </c>
+      <c r="S32" s="12">
+        <v>0.1588</v>
+      </c>
+      <c r="T32" s="12">
+        <v>11.89</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>21916</v>
+      </c>
+      <c r="W32" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="12">
         <v>-2.1579999999999999</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="12" t="s">
         <v>546</v>
       </c>
       <c r="H33">
@@ -13156,27 +14732,60 @@
       <c r="J33" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>63</v>
+      </c>
+      <c r="N33" s="12">
+        <v>-2.0920000000000001</v>
+      </c>
+      <c r="O33" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="P33" s="12">
+        <v>-10.07</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>-8.6509999999999998</v>
+      </c>
+      <c r="R33" s="12">
+        <v>-2.08</v>
+      </c>
+      <c r="S33" s="12">
+        <v>0.2404</v>
+      </c>
+      <c r="T33" s="12">
+        <v>17.2</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33" s="2">
+        <v>29587</v>
+      </c>
+      <c r="W33" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="12">
         <v>-1.899</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="12" t="s">
         <v>551</v>
       </c>
       <c r="H34">
@@ -13188,27 +14797,60 @@
       <c r="J34" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
+      <c r="O34" s="13">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="13">
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>32874</v>
+      </c>
+      <c r="W34" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="12" t="s">
         <v>557</v>
       </c>
       <c r="H35">
@@ -13220,27 +14862,60 @@
       <c r="J35" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>67</v>
+      </c>
+      <c r="N35" s="12">
+        <v>-3.0840000000000001</v>
+      </c>
+      <c r="O35" s="12">
+        <v>9.8290000000000006</v>
+      </c>
+      <c r="P35" s="12">
+        <v>-22.39</v>
+      </c>
+      <c r="Q35" s="12">
+        <v>-20.190000000000001</v>
+      </c>
+      <c r="R35" s="12">
+        <v>-3.173</v>
+      </c>
+      <c r="S35" s="12">
+        <v>0.15720000000000001</v>
+      </c>
+      <c r="T35" s="12">
+        <v>9.3829999999999991</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35" s="2">
+        <v>26299</v>
+      </c>
+      <c r="W35" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="12">
         <v>-2.444</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="12" t="s">
         <v>562</v>
       </c>
       <c r="H36">
@@ -13252,27 +14927,60 @@
       <c r="J36" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>69</v>
+      </c>
+      <c r="N36" s="12">
+        <v>-3.0590000000000002</v>
+      </c>
+      <c r="O36" s="12">
+        <v>11.61</v>
+      </c>
+      <c r="P36" s="12">
+        <v>-19.36</v>
+      </c>
+      <c r="Q36" s="12">
+        <v>-17.7</v>
+      </c>
+      <c r="R36" s="12">
+        <v>-2.9710000000000001</v>
+      </c>
+      <c r="S36" s="12">
+        <v>0.16789999999999999</v>
+      </c>
+      <c r="T36" s="12">
+        <v>11.24</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36" s="2">
+        <v>25569</v>
+      </c>
+      <c r="W36" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="12">
         <v>-1.5980000000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="12">
         <v>-2.46</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="12" t="s">
         <v>566</v>
       </c>
       <c r="H37">
@@ -13284,27 +14992,60 @@
       <c r="J37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="12">
+        <v>-2.9420000000000002</v>
+      </c>
+      <c r="O37" s="12">
+        <v>10.26</v>
+      </c>
+      <c r="P37" s="12">
+        <v>-16.62</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>-15.82</v>
+      </c>
+      <c r="R37" s="12">
+        <v>-2.7989999999999999</v>
+      </c>
+      <c r="S37" s="12">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="T37" s="12">
+        <v>9.5869999999999997</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W37" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="12">
         <v>-1.458</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="12">
         <v>0.29870000000000002</v>
       </c>
       <c r="H38">
@@ -13316,27 +15057,60 @@
       <c r="J38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M38" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="13">
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38" s="2">
+        <v>34700</v>
+      </c>
+      <c r="W38" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="12">
         <v>-2.5379999999999998</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="12" t="s">
         <v>571</v>
       </c>
       <c r="H39">
@@ -13348,27 +15122,60 @@
       <c r="J39" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="12">
+        <v>-2.5720000000000001</v>
+      </c>
+      <c r="O39" s="12">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q39" s="12">
+        <v>-10.42</v>
+      </c>
+      <c r="R39" s="12">
+        <v>-2.2749999999999999</v>
+      </c>
+      <c r="S39" s="12">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="T39" s="12">
+        <v>15.16</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W39" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="12">
         <v>-0.87649999999999995</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="12">
         <v>-1.3819999999999999</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="12" t="s">
         <v>575</v>
       </c>
       <c r="H40">
@@ -13380,27 +15187,60 @@
       <c r="J40" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>73</v>
+      </c>
+      <c r="N40" s="12">
+        <v>-3.7320000000000002</v>
+      </c>
+      <c r="O40" s="12">
+        <v>11.79</v>
+      </c>
+      <c r="P40" s="12">
+        <v>-24.68</v>
+      </c>
+      <c r="Q40" s="12">
+        <v>-21.82</v>
+      </c>
+      <c r="R40" s="12">
+        <v>-3.2989999999999999</v>
+      </c>
+      <c r="S40" s="12">
+        <v>0.1512</v>
+      </c>
+      <c r="T40" s="12">
+        <v>10.85</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W40" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="12">
         <v>-1.085</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="12">
         <v>-1.0369999999999999</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="12">
         <v>-1.1919999999999999</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="12" t="s">
         <v>578</v>
       </c>
       <c r="H41">
@@ -13412,27 +15252,60 @@
       <c r="J41" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>74</v>
+      </c>
+      <c r="N41" s="12">
+        <v>-2.38</v>
+      </c>
+      <c r="O41" s="12">
+        <v>34.58</v>
+      </c>
+      <c r="P41" s="12">
+        <v>-10.25</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>-6.9180000000000001</v>
+      </c>
+      <c r="R41" s="12">
+        <v>-1.7649999999999999</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0.25509999999999999</v>
+      </c>
+      <c r="T41" s="12">
+        <v>27.02</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="V41" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W41" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="12">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="12" t="s">
         <v>583</v>
       </c>
       <c r="H42">
@@ -13444,27 +15317,60 @@
       <c r="J42" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M42" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N42" s="13">
+        <v>0</v>
+      </c>
+      <c r="O42" s="13">
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <v>0</v>
+      </c>
+      <c r="R42" s="13">
+        <v>0</v>
+      </c>
+      <c r="S42" s="13">
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42" s="2">
+        <v>34700</v>
+      </c>
+      <c r="W42" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="12">
         <v>-0.93069999999999997</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="12">
         <v>-0.52370000000000005</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="12">
         <v>-1.575</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="12">
         <v>-4.6840000000000002</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="12">
         <v>-2.4489999999999998</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="12" t="s">
         <v>324</v>
       </c>
       <c r="H43">
@@ -13476,27 +15382,60 @@
       <c r="J43" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="O43" s="12">
+        <v>11.46</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q43" s="12">
+        <v>-21.33</v>
+      </c>
+      <c r="R43" s="12">
+        <v>-3.2650000000000001</v>
+      </c>
+      <c r="S43" s="12">
+        <v>0.15310000000000001</v>
+      </c>
+      <c r="T43" s="12">
+        <v>11.61</v>
+      </c>
+      <c r="U43">
+        <v>3</v>
+      </c>
+      <c r="V43" s="2">
+        <v>36161</v>
+      </c>
+      <c r="W43" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>77</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="12">
         <v>-1.5820000000000001</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="12">
         <v>-1.2030000000000001</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="12">
         <v>-1.633</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="12" t="s">
         <v>327</v>
       </c>
       <c r="H44">
@@ -13508,27 +15447,60 @@
       <c r="J44" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="12">
+        <v>-1.917</v>
+      </c>
+      <c r="O44" s="12">
+        <v>42.39</v>
+      </c>
+      <c r="P44" s="12">
+        <v>-10.87</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>-6.5750000000000002</v>
+      </c>
+      <c r="R44" s="12">
+        <v>-1.7929999999999999</v>
+      </c>
+      <c r="S44" s="12">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="T44" s="12">
+        <v>35.4</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="V44" s="2">
+        <v>36526</v>
+      </c>
+      <c r="W44" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="12" t="s">
         <v>588</v>
       </c>
       <c r="H45">
@@ -13540,27 +15512,60 @@
       <c r="J45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>79</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="T45" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="V45" s="2">
+        <v>28856</v>
+      </c>
+      <c r="W45" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="12" t="s">
         <v>341</v>
       </c>
       <c r="H46">
@@ -13572,27 +15577,60 @@
       <c r="J46" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="12">
+        <v>-3.4870000000000001</v>
+      </c>
+      <c r="O46" s="12">
+        <v>15.64</v>
+      </c>
+      <c r="P46" s="12">
+        <v>-26.77</v>
+      </c>
+      <c r="Q46" s="12">
+        <v>-19.79</v>
+      </c>
+      <c r="R46" s="12">
+        <v>-3.145</v>
+      </c>
+      <c r="S46" s="12">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="T46" s="12">
+        <v>14.34</v>
+      </c>
+      <c r="U46">
+        <v>3</v>
+      </c>
+      <c r="V46" s="2">
+        <v>34700</v>
+      </c>
+      <c r="W46" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="12">
         <v>-2.2029999999999998</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="12">
         <v>-1.125</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="12" t="s">
         <v>591</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="12" t="s">
         <v>592</v>
       </c>
       <c r="H47">
@@ -13604,27 +15642,60 @@
       <c r="J47" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N47" s="13">
+        <v>0</v>
+      </c>
+      <c r="O47" s="13">
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <v>0</v>
+      </c>
+      <c r="S47" s="13">
+        <v>0</v>
+      </c>
+      <c r="T47" s="13">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W47" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="12" t="s">
         <v>597</v>
       </c>
       <c r="H48">
@@ -13636,27 +15707,60 @@
       <c r="J48" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>83</v>
+      </c>
+      <c r="N48" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="O48" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="S48" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="T48" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="V48" s="2">
+        <v>29221</v>
+      </c>
+      <c r="W48" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="12">
         <v>-1.2070000000000001</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="12" t="s">
         <v>602</v>
       </c>
       <c r="H49">
@@ -13668,27 +15772,60 @@
       <c r="J49" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>85</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>767</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>772</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49" s="2">
+        <v>27395</v>
+      </c>
+      <c r="W49" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>86</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="12" t="s">
         <v>606</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <v>0.1158</v>
       </c>
       <c r="H50">
@@ -13700,27 +15837,60 @@
       <c r="J50" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" s="12">
+        <v>-2.8690000000000002</v>
+      </c>
+      <c r="O50" s="12">
+        <v>11.23</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="Q50" s="12">
+        <v>-13.24</v>
+      </c>
+      <c r="R50" s="12">
+        <v>-2.5579999999999998</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0.19320000000000001</v>
+      </c>
+      <c r="T50" s="12">
+        <v>10.85</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50" s="2">
+        <v>36526</v>
+      </c>
+      <c r="W50" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="12" t="s">
         <v>364</v>
       </c>
       <c r="H51">
@@ -13732,27 +15902,60 @@
       <c r="J51" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>88</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="O51" s="12">
+        <v>8.1430000000000007</v>
+      </c>
+      <c r="P51" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q51" s="12">
+        <v>-22.19</v>
+      </c>
+      <c r="R51" s="12">
+        <v>-3.3250000000000002</v>
+      </c>
+      <c r="S51" s="12">
+        <v>0.14990000000000001</v>
+      </c>
+      <c r="T51" s="12">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51" s="2">
+        <v>28856</v>
+      </c>
+      <c r="W51" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="12">
         <v>-2.3780000000000001</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="12">
         <v>-2.585</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="12" t="s">
         <v>368</v>
       </c>
       <c r="H52">
@@ -13764,27 +15967,60 @@
       <c r="J52" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>89</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="O52" s="12">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="Q52" s="12">
+        <v>-17.670000000000002</v>
+      </c>
+      <c r="R52" s="12">
+        <v>-2.9660000000000002</v>
+      </c>
+      <c r="S52" s="12">
+        <v>0.1678</v>
+      </c>
+      <c r="T52" s="12">
+        <v>7.5289999999999999</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>28216</v>
+      </c>
+      <c r="W52" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="12" t="s">
         <v>612</v>
       </c>
       <c r="H53">
@@ -13796,27 +16032,60 @@
       <c r="J53" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="12">
+        <v>-2.1760000000000002</v>
+      </c>
+      <c r="O53" s="12">
+        <v>14.74</v>
+      </c>
+      <c r="P53" s="12">
+        <v>-12.16</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>-11.08</v>
+      </c>
+      <c r="R53" s="12">
+        <v>-2.2959999999999998</v>
+      </c>
+      <c r="S53" s="12">
+        <v>0.20710000000000001</v>
+      </c>
+      <c r="T53" s="12">
+        <v>12.95</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53" s="2">
+        <v>31048</v>
+      </c>
+      <c r="W53" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>92</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="12" t="s">
         <v>618</v>
       </c>
       <c r="H54">
@@ -13828,27 +16097,60 @@
       <c r="J54" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="12">
+        <v>-2.6859999999999999</v>
+      </c>
+      <c r="O54" s="12">
+        <v>19.25</v>
+      </c>
+      <c r="P54" s="12">
+        <v>-16.12</v>
+      </c>
+      <c r="Q54" s="12">
+        <v>-14.35</v>
+      </c>
+      <c r="R54" s="12">
+        <v>-2.6789999999999998</v>
+      </c>
+      <c r="S54" s="12">
+        <v>0.18659999999999999</v>
+      </c>
+      <c r="T54" s="12">
+        <v>17.22</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W54" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="12">
         <v>-2.2850000000000001</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="12" t="s">
         <v>385</v>
       </c>
       <c r="H55">
@@ -13860,27 +16162,60 @@
       <c r="J55" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M55" t="s">
+        <v>93</v>
+      </c>
+      <c r="N55" s="12">
+        <v>-2.8809999999999998</v>
+      </c>
+      <c r="O55" s="12">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P55" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q55" s="12">
+        <v>-12.3</v>
+      </c>
+      <c r="R55" s="12">
+        <v>-2.4689999999999999</v>
+      </c>
+      <c r="S55" s="12">
+        <v>0.20080000000000001</v>
+      </c>
+      <c r="T55" s="12">
+        <v>19.05</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55" s="2">
+        <v>33239</v>
+      </c>
+      <c r="W55" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="12">
         <v>-2.4929999999999999</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="12">
         <v>-2.4929999999999999</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="12" t="s">
         <v>621</v>
       </c>
       <c r="H56">
@@ -13892,27 +16227,60 @@
       <c r="J56" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="O56" s="12">
+        <v>9.7550000000000008</v>
+      </c>
+      <c r="P56" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="Q56" s="12">
+        <v>-24.32</v>
+      </c>
+      <c r="R56" s="12">
+        <v>-3.4809999999999999</v>
+      </c>
+      <c r="S56" s="12">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="T56" s="12">
+        <v>9.5749999999999993</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="V56" s="2">
+        <v>34335</v>
+      </c>
+      <c r="W56" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>96</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="12">
         <v>-1.4059999999999999</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="12">
         <v>-1.5249999999999999</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="12" t="s">
         <v>625</v>
       </c>
       <c r="H57">
@@ -13924,27 +16292,60 @@
       <c r="J57" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M57" t="s">
+        <v>96</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="P57" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="Q57" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="S57" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="T57" s="12" t="s">
+        <v>788</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57" s="2">
+        <v>33970</v>
+      </c>
+      <c r="W57" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>97</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="12">
         <v>-0.58399999999999996</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="12">
         <v>-1.046</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="12">
         <v>-2.5750000000000002</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="12">
         <v>-1.7529999999999999</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="12" t="s">
         <v>627</v>
       </c>
       <c r="H58">
@@ -13956,27 +16357,60 @@
       <c r="J58" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>97</v>
+      </c>
+      <c r="N58" s="12">
+        <v>-2.3109999999999999</v>
+      </c>
+      <c r="O58" s="12">
+        <v>11.83</v>
+      </c>
+      <c r="P58" s="12">
+        <v>-15.01</v>
+      </c>
+      <c r="Q58" s="12">
+        <v>-13.63</v>
+      </c>
+      <c r="R58" s="12">
+        <v>-2.5339999999999998</v>
+      </c>
+      <c r="S58" s="12">
+        <v>0.18590000000000001</v>
+      </c>
+      <c r="T58" s="12">
+        <v>11.41</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+      <c r="V58" s="2">
+        <v>34700</v>
+      </c>
+      <c r="W58" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="12" t="s">
         <v>633</v>
       </c>
       <c r="H59">
@@ -13988,27 +16422,60 @@
       <c r="J59" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M59" t="s">
+        <v>98</v>
+      </c>
+      <c r="N59" s="12">
+        <v>-2.6429999999999998</v>
+      </c>
+      <c r="O59" s="12">
+        <v>13.36</v>
+      </c>
+      <c r="P59" s="12">
+        <v>-14.44</v>
+      </c>
+      <c r="Q59" s="12">
+        <v>-13.48</v>
+      </c>
+      <c r="R59" s="12">
+        <v>-2.5920000000000001</v>
+      </c>
+      <c r="S59" s="12">
+        <v>0.1923</v>
+      </c>
+      <c r="T59" s="12">
+        <v>12.38</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <v>21916</v>
+      </c>
+      <c r="W59" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>99</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="12">
         <v>-2.2250000000000001</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="12">
         <v>-1.0609999999999999</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="12" t="s">
         <v>637</v>
       </c>
       <c r="H60">
@@ -14020,27 +16487,60 @@
       <c r="J60" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="O60" s="12">
+        <v>10.68</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q60" s="12" t="s">
+        <v>791</v>
+      </c>
+      <c r="R60" s="12" t="s">
+        <v>792</v>
+      </c>
+      <c r="S60" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="T60" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="U60">
+        <v>4</v>
+      </c>
+      <c r="V60" s="2">
+        <v>27760</v>
+      </c>
+      <c r="W60" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>100</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="12">
         <v>-2.4350000000000001</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="12">
         <v>-1.641</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="12">
         <v>-5.6429999999999998</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="12">
         <v>-2.1829999999999998</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="12" t="s">
         <v>639</v>
       </c>
       <c r="H61">
@@ -14052,27 +16552,60 @@
       <c r="J61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M61" t="s">
+        <v>100</v>
+      </c>
+      <c r="N61" s="12">
+        <v>-2.6349999999999998</v>
+      </c>
+      <c r="O61" s="12">
+        <v>23.68</v>
+      </c>
+      <c r="P61" s="12">
+        <v>-16.84</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>-15.78</v>
+      </c>
+      <c r="R61" s="12">
+        <v>-2.68</v>
+      </c>
+      <c r="S61" s="12">
+        <v>0.16980000000000001</v>
+      </c>
+      <c r="T61" s="12">
+        <v>22.72</v>
+      </c>
+      <c r="U61">
+        <v>4</v>
+      </c>
+      <c r="V61" s="2">
+        <v>27395</v>
+      </c>
+      <c r="W61" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>101</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="12" t="s">
         <v>645</v>
       </c>
       <c r="H62">
@@ -14084,27 +16617,60 @@
       <c r="J62" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>101</v>
+      </c>
+      <c r="N62" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="Q62" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="R62" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="S62" s="12" t="s">
+        <v>800</v>
+      </c>
+      <c r="T62" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2">
+        <v>28126</v>
+      </c>
+      <c r="W62" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>103</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="12">
         <v>-1.2130000000000001</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="12">
         <v>-0.74399999999999999</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="12">
         <v>-2.2890000000000001</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="12">
         <v>-10.56</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="12">
         <v>-1.877</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="12" t="s">
         <v>646</v>
       </c>
       <c r="H63">
@@ -14116,27 +16682,60 @@
       <c r="J63" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M63" t="s">
+        <v>103</v>
+      </c>
+      <c r="N63" s="12">
+        <v>-3.6640000000000001</v>
+      </c>
+      <c r="O63" s="12">
+        <v>12.88</v>
+      </c>
+      <c r="P63" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="Q63" s="12">
+        <v>-23.7</v>
+      </c>
+      <c r="R63" s="12">
+        <v>-3.3660000000000001</v>
+      </c>
+      <c r="S63" s="12">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="T63" s="12">
+        <v>12.54</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63" s="2">
+        <v>27395</v>
+      </c>
+      <c r="W63" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>104</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="12">
         <v>-1.2490000000000001</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="12" t="s">
         <v>651</v>
       </c>
       <c r="H64">
@@ -14148,27 +16747,60 @@
       <c r="J64" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>104</v>
+      </c>
+      <c r="N64" s="12" t="s">
+        <v>803</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q64" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="R64" s="12" t="s">
+        <v>807</v>
+      </c>
+      <c r="S64" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="T64" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64" s="2">
+        <v>26299</v>
+      </c>
+      <c r="W64" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="12">
         <v>-0.59789999999999999</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="12">
         <v>-1.512</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="12" t="s">
         <v>426</v>
       </c>
       <c r="H65">
@@ -14180,27 +16812,60 @@
       <c r="J65" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M65" t="s">
+        <v>105</v>
+      </c>
+      <c r="N65" s="12" t="s">
+        <v>810</v>
+      </c>
+      <c r="O65" s="12">
+        <v>10.7</v>
+      </c>
+      <c r="P65" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>-22.76</v>
+      </c>
+      <c r="R65" s="12">
+        <v>-3.3530000000000002</v>
+      </c>
+      <c r="S65" s="12">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="T65" s="12">
+        <v>10.26</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65" s="2">
+        <v>29587</v>
+      </c>
+      <c r="W65" s="2">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="12" t="s">
         <v>431</v>
       </c>
       <c r="H66">
@@ -14212,27 +16877,60 @@
       <c r="J66" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>106</v>
+      </c>
+      <c r="N66" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="P66" s="12" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q66" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="R66" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="S66" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="T66" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66" s="2">
+        <v>27760</v>
+      </c>
+      <c r="W66" s="2">
+        <v>43739</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>107</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="12">
         <v>-2.0249999999999999</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="12">
         <v>-2.0089999999999999</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="12" t="s">
         <v>655</v>
       </c>
       <c r="H67">
@@ -14244,27 +16942,60 @@
       <c r="J67" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M67" t="s">
+        <v>107</v>
+      </c>
+      <c r="N67" s="12">
+        <v>-2.9940000000000002</v>
+      </c>
+      <c r="O67" s="12">
+        <v>10.95</v>
+      </c>
+      <c r="P67" s="12">
+        <v>-17</v>
+      </c>
+      <c r="Q67" s="12">
+        <v>-15.87</v>
+      </c>
+      <c r="R67" s="12">
+        <v>-2.7959999999999998</v>
+      </c>
+      <c r="S67" s="12">
+        <v>0.17610000000000001</v>
+      </c>
+      <c r="T67" s="12">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="U67">
+        <v>1</v>
+      </c>
+      <c r="V67" s="2">
+        <v>31778</v>
+      </c>
+      <c r="W67" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="12" t="s">
         <v>661</v>
       </c>
       <c r="H68">
@@ -14276,27 +17007,60 @@
       <c r="J68" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M68" t="s">
+        <v>109</v>
+      </c>
+      <c r="N68" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="P68" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="Q68" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="R68" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="S68" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="T68" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="U68">
+        <v>2</v>
+      </c>
+      <c r="V68" s="2">
+        <v>20090</v>
+      </c>
+      <c r="W68" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="12">
         <v>-1.81</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="12">
         <v>-1.097</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="12">
         <v>-1.5209999999999999</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="12">
         <v>-4.0780000000000003</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="12">
         <v>-2.1040000000000001</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="12" t="s">
         <v>662</v>
       </c>
       <c r="H69">
@@ -14308,27 +17072,60 @@
       <c r="J69" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M69" t="s">
+        <v>111</v>
+      </c>
+      <c r="N69" s="12">
+        <v>-3.032</v>
+      </c>
+      <c r="O69" s="12">
+        <v>17.47</v>
+      </c>
+      <c r="P69" s="12">
+        <v>-17.88</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>-17.21</v>
+      </c>
+      <c r="R69" s="12">
+        <v>-2.919</v>
+      </c>
+      <c r="S69" s="12">
+        <v>0.1696</v>
+      </c>
+      <c r="T69" s="12">
+        <v>15.91</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69" s="2">
+        <v>21916</v>
+      </c>
+      <c r="W69" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="12">
         <v>-2.2570000000000001</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="12">
         <v>-2.2559999999999998</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="12" t="s">
         <v>448</v>
       </c>
       <c r="H70">
@@ -14340,27 +17137,60 @@
       <c r="J70" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M70" t="s">
+        <v>112</v>
+      </c>
+      <c r="N70" s="12">
+        <v>-3.012</v>
+      </c>
+      <c r="O70" s="12">
+        <v>15.51</v>
+      </c>
+      <c r="P70" s="12">
+        <v>-19.48</v>
+      </c>
+      <c r="Q70" s="12">
+        <v>-15.56</v>
+      </c>
+      <c r="R70" s="12">
+        <v>-2.7810000000000001</v>
+      </c>
+      <c r="S70" s="12">
+        <v>0.1787</v>
+      </c>
+      <c r="T70" s="12">
+        <v>14.49</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70" s="2">
+        <v>36161</v>
+      </c>
+      <c r="W70" s="2">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="12" t="s">
         <v>453</v>
       </c>
       <c r="H71">
@@ -14372,27 +17202,60 @@
       <c r="J71" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M71" t="s">
+        <v>113</v>
+      </c>
+      <c r="N71" s="12">
+        <v>-3.262</v>
+      </c>
+      <c r="O71" s="12">
+        <v>13.92</v>
+      </c>
+      <c r="P71" s="12">
+        <v>-19.22</v>
+      </c>
+      <c r="Q71" s="12">
+        <v>-16.989999999999998</v>
+      </c>
+      <c r="R71" s="12">
+        <v>-2.883</v>
+      </c>
+      <c r="S71" s="12">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="T71" s="12">
+        <v>12.85</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71" s="2">
+        <v>34335</v>
+      </c>
+      <c r="W71" s="2">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>115</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="12">
         <v>-0.81789999999999996</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="12">
         <v>-1.851</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="12" t="s">
         <v>666</v>
       </c>
       <c r="H72">
@@ -14404,8 +17267,44 @@
       <c r="J72" t="s">
         <v>166</v>
       </c>
+      <c r="M72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N72" s="12">
+        <v>-2.5270000000000001</v>
+      </c>
+      <c r="O72" s="12">
+        <v>14.42</v>
+      </c>
+      <c r="P72" s="12">
+        <v>-16.7</v>
+      </c>
+      <c r="Q72" s="12">
+        <v>-11.52</v>
+      </c>
+      <c r="R72" s="12">
+        <v>-2.4</v>
+      </c>
+      <c r="S72" s="12">
+        <v>0.2084</v>
+      </c>
+      <c r="T72" s="12">
+        <v>13.77</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72" s="2">
+        <v>35065</v>
+      </c>
+      <c r="W72" s="2">
+        <v>43831</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M2:W2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
